--- a/balance.xlsx
+++ b/balance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>기본금액</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -232,6 +232,14 @@
   </si>
   <si>
     <t>싸게싸게</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>물건 팔리는 최소 시간</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>그후로 0.2초씩 감소</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -668,6 +676,105 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,105 +792,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1085,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1107,18 +1115,18 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="J2" s="11" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="J2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -1151,20 +1159,20 @@
       <c r="M3">
         <v>5</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="14"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="31"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="33"/>
       <c r="R4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1176,10 +1184,10 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="18"/>
+      <c r="Q5" s="35"/>
       <c r="R5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1191,23 +1199,23 @@
       <c r="B6">
         <v>6</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="J6" s="10" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="J6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="P6" s="19" t="s">
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="P6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="21"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="18"/>
     </row>
     <row r="7" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -1245,11 +1253,11 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="P7" s="22" t="s">
+      <c r="P7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="24"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="15"/>
     </row>
     <row r="8" spans="1:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1258,11 +1266,11 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="28" t="s">
+      <c r="P8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="30"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -1271,17 +1279,17 @@
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="P9" s="25" t="s">
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="P9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="27"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="21"/>
     </row>
     <row r="10" spans="1:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1303,11 +1311,11 @@
         <f>$G$3*$B$12*$A1</f>
         <v>30</v>
       </c>
-      <c r="P10" s="19" t="s">
+      <c r="P10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="21"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="18"/>
     </row>
     <row r="11" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
@@ -1329,11 +1337,11 @@
         <f t="shared" ref="G11:G18" si="5">$G$3*$B$12*$A2</f>
         <v>60</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P11" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="8"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="41"/>
     </row>
     <row r="12" spans="1:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12">
@@ -1355,14 +1363,14 @@
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D13">
@@ -1381,18 +1389,18 @@
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="33" t="s">
-        <v>23</v>
+      <c r="B14" t="s">
+        <v>49</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
@@ -1410,18 +1418,18 @@
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="33" t="s">
-        <v>24</v>
+      <c r="B15">
+        <v>6</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
@@ -1439,18 +1447,18 @@
         <f t="shared" si="5"/>
         <v>180</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="33" t="s">
-        <v>25</v>
+      <c r="B16" t="s">
+        <v>50</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
@@ -1488,8 +1496,8 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="34" t="s">
-        <v>26</v>
+      <c r="B18" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
@@ -1507,18 +1515,18 @@
         <f t="shared" si="5"/>
         <v>270</v>
       </c>
-      <c r="I18" s="35" t="s">
+      <c r="I18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="34">
-        <v>50</v>
+      <c r="B19" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
@@ -1536,44 +1544,46 @@
         <f>$G$3*$B$12*$A10</f>
         <v>300</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="36" t="s">
+      <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="36" t="s">
+      <c r="I21" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="33" t="s">
-        <v>29</v>
+      <c r="B23" s="5">
+        <v>50</v>
       </c>
       <c r="D23">
         <v>1.6</v>
@@ -1584,7 +1594,7 @@
       <c r="F23">
         <v>1.6</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="3">
         <v>1.6</v>
       </c>
       <c r="H23">
@@ -1595,22 +1605,22 @@
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="38" t="s">
+      <c r="B24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="40" t="s">
+      <c r="H24" s="9" t="s">
         <v>48</v>
       </c>
       <c r="I24" t="s">
@@ -1618,8 +1628,8 @@
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="33" t="s">
-        <v>31</v>
+      <c r="B25" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D25">
         <v>60</v>
@@ -1667,268 +1677,288 @@
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="41">
+      <c r="B27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="10">
         <f t="shared" ref="D27:D34" si="6">D26 * $D$23</f>
         <v>153.60000000000002</v>
       </c>
-      <c r="E27" s="41">
-        <f t="shared" ref="E27:E36" si="7">E26 * $E$23</f>
+      <c r="E27" s="10">
+        <f t="shared" ref="E27:E34" si="7">E26 * $E$23</f>
         <v>140.80000000000001</v>
       </c>
-      <c r="F27" s="41">
-        <f t="shared" ref="F27:F45" si="8">F26 * $F$23</f>
+      <c r="F27" s="10">
+        <f t="shared" ref="F27:F34" si="8">F26 * $F$23</f>
         <v>115.2</v>
       </c>
-      <c r="G27" s="41">
+      <c r="G27" s="10">
         <f t="shared" ref="G27:G34" si="9">G26 * $G$23</f>
         <v>115.2</v>
       </c>
-      <c r="H27" s="41">
+      <c r="H27" s="10">
         <f t="shared" ref="H27:H34" si="10">H26 * $H$23</f>
         <v>89.600000000000009</v>
       </c>
-      <c r="I27" s="41">
+      <c r="I27" s="10">
         <f t="shared" ref="I27:I34" si="11">I26 * $I$23</f>
         <v>86.7</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="41">
+      <c r="B28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="10">
         <f t="shared" si="6"/>
         <v>245.76000000000005</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="10">
         <f t="shared" si="7"/>
         <v>225.28000000000003</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="10">
         <f t="shared" si="8"/>
         <v>184.32000000000002</v>
       </c>
-      <c r="G28" s="41">
+      <c r="G28" s="10">
         <f t="shared" si="9"/>
         <v>184.32000000000002</v>
       </c>
-      <c r="H28" s="41">
+      <c r="H28" s="10">
         <f t="shared" si="10"/>
         <v>143.36000000000001</v>
       </c>
-      <c r="I28" s="41">
+      <c r="I28" s="10">
         <f t="shared" si="11"/>
         <v>147.39000000000001</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="41">
+      <c r="B29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="10">
         <f t="shared" si="6"/>
         <v>393.21600000000012</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="10">
         <f t="shared" si="7"/>
         <v>360.44800000000009</v>
       </c>
-      <c r="F29" s="41">
+      <c r="F29" s="10">
         <f t="shared" si="8"/>
         <v>294.91200000000003</v>
       </c>
-      <c r="G29" s="41">
+      <c r="G29" s="10">
         <f t="shared" si="9"/>
         <v>294.91200000000003</v>
       </c>
-      <c r="H29" s="41">
+      <c r="H29" s="10">
         <f t="shared" si="10"/>
         <v>229.37600000000003</v>
       </c>
-      <c r="I29" s="41">
+      <c r="I29" s="10">
         <f t="shared" si="11"/>
         <v>250.56300000000002</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D30" s="41">
+      <c r="D30" s="10">
         <f t="shared" si="6"/>
         <v>629.14560000000029</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="10">
         <f t="shared" si="7"/>
         <v>576.71680000000015</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="10">
         <f t="shared" si="8"/>
         <v>471.8592000000001</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="10">
         <f t="shared" si="9"/>
         <v>471.8592000000001</v>
       </c>
-      <c r="H30" s="41">
+      <c r="H30" s="10">
         <f t="shared" si="10"/>
         <v>367.00160000000005</v>
       </c>
-      <c r="I30" s="41">
+      <c r="I30" s="10">
         <f t="shared" si="11"/>
         <v>425.95710000000003</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="41">
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="10">
         <f t="shared" si="6"/>
         <v>1006.6329600000005</v>
       </c>
-      <c r="E31" s="41">
+      <c r="E31" s="10">
         <f t="shared" si="7"/>
         <v>922.74688000000026</v>
       </c>
-      <c r="F31" s="41">
+      <c r="F31" s="10">
         <f t="shared" si="8"/>
         <v>754.97472000000016</v>
       </c>
-      <c r="G31" s="41">
+      <c r="G31" s="10">
         <f t="shared" si="9"/>
         <v>754.97472000000016</v>
       </c>
-      <c r="H31" s="41">
+      <c r="H31" s="10">
         <f t="shared" si="10"/>
         <v>587.20256000000006</v>
       </c>
-      <c r="I31" s="41">
+      <c r="I31" s="10">
         <f t="shared" si="11"/>
         <v>724.12707</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="41">
+      <c r="B32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="10">
         <f t="shared" si="6"/>
         <v>1610.612736000001</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="10">
         <f t="shared" si="7"/>
         <v>1476.3950080000004</v>
       </c>
-      <c r="F32" s="41">
+      <c r="F32" s="10">
         <f t="shared" si="8"/>
         <v>1207.9595520000003</v>
       </c>
-      <c r="G32" s="41">
+      <c r="G32" s="10">
         <f t="shared" si="9"/>
         <v>1207.9595520000003</v>
       </c>
-      <c r="H32" s="41">
+      <c r="H32" s="10">
         <f t="shared" si="10"/>
         <v>939.5240960000001</v>
       </c>
-      <c r="I32" s="41">
+      <c r="I32" s="10">
         <f t="shared" si="11"/>
         <v>1231.0160189999999</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="41">
+      <c r="B33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="10">
         <f t="shared" si="6"/>
         <v>2576.9803776000017</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="10">
         <f t="shared" si="7"/>
         <v>2362.2320128000006</v>
       </c>
-      <c r="F33" s="41">
+      <c r="F33" s="10">
         <f t="shared" si="8"/>
         <v>1932.7352832000006</v>
       </c>
-      <c r="G33" s="41">
+      <c r="G33" s="10">
         <f t="shared" si="9"/>
         <v>1932.7352832000006</v>
       </c>
-      <c r="H33" s="41">
+      <c r="H33" s="10">
         <f t="shared" si="10"/>
         <v>1503.2385536000002</v>
       </c>
-      <c r="I33" s="41">
+      <c r="I33" s="10">
         <f t="shared" si="11"/>
         <v>2092.7272322999997</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D34" s="41">
+      <c r="D34" s="10">
         <f t="shared" si="6"/>
         <v>4123.1686041600033</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="10">
         <f t="shared" si="7"/>
         <v>3779.5712204800011</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="10">
         <f t="shared" si="8"/>
         <v>3092.3764531200013</v>
       </c>
-      <c r="G34" s="41">
+      <c r="G34" s="10">
         <f t="shared" si="9"/>
         <v>3092.3764531200013</v>
       </c>
-      <c r="H34" s="41">
+      <c r="H34" s="10">
         <f t="shared" si="10"/>
         <v>2405.1816857600002</v>
       </c>
-      <c r="I34" s="41">
+      <c r="I34" s="10">
         <f t="shared" si="11"/>
         <v>3557.6362949099994</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
+      <c r="B35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
+      <c r="B36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F37" s="41"/>
+      <c r="B37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F38" s="41"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F39" s="41"/>
+      <c r="F39" s="10"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F40" s="41"/>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F41" s="41"/>
+      <c r="F41" s="10"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F42" s="41"/>
+      <c r="F42" s="10"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F43" s="41"/>
+      <c r="F43" s="10"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F44" s="41"/>
+      <c r="F44" s="10"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F45" s="41"/>
+      <c r="F45" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J6:M6"/>
     <mergeCell ref="I18:N18"/>
     <mergeCell ref="I20:N20"/>
     <mergeCell ref="I19:N19"/>
@@ -1937,20 +1967,9 @@
     <mergeCell ref="P10:R10"/>
     <mergeCell ref="P9:R9"/>
     <mergeCell ref="P8:R8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="I12:N12"/>
     <mergeCell ref="I13:N13"/>
     <mergeCell ref="I14:N14"/>
     <mergeCell ref="I15:N15"/>
-    <mergeCell ref="P11:R11"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
